--- a/docs/StructureDefinition-ProblemListChange.xlsx
+++ b/docs/StructureDefinition-ProblemListChange.xlsx
@@ -343,7 +343,53 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>reference-targetElement/extension/elementUri</t>
+    <t>reference-targetElement-extension-change-extension-newValue</t>
+  </si>
+  <si>
+    <t>NEW VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/reference-targetElement.extension.change.extension.newValue}
+</t>
+  </si>
+  <si>
+    <t>&lt;New Value&gt;</t>
+  </si>
+  <si>
+    <t>This is the new value now stored in the Problem file global (internal format).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PROBLEM LIST AUDIT FILE @NEW VALUE 125.8-5</t>
+  </si>
+  <si>
+    <t>reference-targetElement-extension-change-extension-oldValue</t>
+  </si>
+  <si>
+    <t>OLD VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/reference-targetElement.extension.change.extension.oldValue}
+</t>
+  </si>
+  <si>
+    <t>&lt;Old Value&gt;   to</t>
+  </si>
+  <si>
+    <t>This is the original value as stored in the Problem file global (internal format).</t>
+  </si>
+  <si>
+    <t>PROBLEM LIST AUDIT FILE @OLD VALUE 125.8-4</t>
+  </si>
+  <si>
+    <t>reference-targetElement-extension-elementUri</t>
   </si>
   <si>
     <t>FIELD NUMBER</t>
@@ -359,53 +405,7 @@
     <t>This is the number of the field for which a change is being recorded.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PROBLEM LIST AUDIT FILE @FIELD NUMBER  125.8-1</t>
-  </si>
-  <si>
-    <t>reference-targetElement/extension/change/extension/oldValue</t>
-  </si>
-  <si>
-    <t>OLD VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/reference-targetElement.extension.change.extension.oldValue}
-</t>
-  </si>
-  <si>
-    <t>&lt;Old Value&gt;   to</t>
-  </si>
-  <si>
-    <t>This is the original value as stored in the Problem file global (internal format).</t>
-  </si>
-  <si>
-    <t>PROBLEM LIST AUDIT FILE @OLD VALUE 125.8-4</t>
-  </si>
-  <si>
-    <t>reference-targetElement/extension/change/extension/newValue</t>
-  </si>
-  <si>
-    <t>NEW VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/reference-targetElement.extension.change.extension.newValue}
-</t>
-  </si>
-  <si>
-    <t>&lt;New Value&gt;</t>
-  </si>
-  <si>
-    <t>This is the new value now stored in the Problem file global (internal format).</t>
-  </si>
-  <si>
-    <t>PROBLEM LIST AUDIT FILE @NEW VALUE 125.8-5</t>
   </si>
   <si>
     <t>Provenance.modifierExtension</t>
@@ -1152,7 +1152,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="59.859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.03515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="20.73046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2325,7 +2325,7 @@
         <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>44</v>
@@ -2557,7 +2557,7 @@
         <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-ProblemListChange.xlsx
+++ b/docs/StructureDefinition-ProblemListChange.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -834,23 +834,37 @@
     <t>Provenance.agent.who[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Who participated</t>
+  </si>
+  <si>
+    <t>The individual, device or organization that participated in the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>whoReference</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf[x]</t>
+  </si>
+  <si>
     <t>uri
 Reference(Practitioner|RelatedPerson|Patient|Device|Organization)</t>
-  </si>
-  <si>
-    <t>Who participated</t>
-  </si>
-  <si>
-    <t>The individual, device or organization that participated in the event.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf[x]</t>
   </si>
   <si>
     <t>Who the agent is representing</t>
@@ -1142,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4917,16 +4931,14 @@
         <v>44</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>261</v>
@@ -4947,13 +4959,13 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -4961,15 +4973,17 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>53</v>
@@ -4981,16 +4995,16 @@
         <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>262</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5041,10 +5055,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>53</v>
@@ -5059,13 +5073,13 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -5073,7 +5087,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5096,7 +5110,7 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>272</v>
@@ -5129,13 +5143,13 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
@@ -5153,7 +5167,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5171,10 +5185,10 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -5185,7 +5199,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5196,7 +5210,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5208,17 +5222,15 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5243,13 +5255,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -5267,39 +5279,39 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>285</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5310,7 +5322,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5322,15 +5334,17 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5379,50 +5393,50 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -5434,17 +5448,15 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5493,13 +5505,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -5525,11 +5537,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5542,19 +5554,19 @@
         <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>128</v>
@@ -5607,7 +5619,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5625,7 +5637,7 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -5639,38 +5651,40 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5695,13 +5709,13 @@
         <v>44</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>292</v>
+        <v>44</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>293</v>
+        <v>44</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>44</v>
@@ -5719,13 +5733,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -5737,21 +5751,21 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5774,17 +5788,15 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -5809,13 +5821,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -5833,7 +5845,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>53</v>
@@ -5851,21 +5863,21 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>138</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5873,10 +5885,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -5885,19 +5897,19 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5947,13 +5959,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -5965,21 +5977,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6002,15 +6014,17 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6059,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6077,20 +6091,132 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN43" t="s" s="2">
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN43">
+  <autoFilter ref="A1:AN44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6100,7 +6226,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI42">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
